--- a/data/case9_DC.xlsx
+++ b/data/case9_DC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samho\Desktop\PhD\DC OPF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D7320A-009D-47E0-AE32-E6CEE7D489B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9F9F26-0A40-4762-B08F-D3C474315FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ac_links" sheetId="12" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -125,30 +125,15 @@
     <t>D1</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>100000</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>D3</t>
   </si>
   <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>from_busname</t>
   </si>
   <si>
@@ -411,6 +396,9 @@
   </si>
   <si>
     <t>MTDC</t>
+  </si>
+  <si>
+    <t>poles</t>
   </si>
 </sst>
 </file>
@@ -442,7 +430,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -465,13 +453,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -790,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2377B432-B755-4411-A970-729F4FF71B71}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -807,42 +809,42 @@
         <v>26</v>
       </c>
       <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" t="s">
-        <v>47</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
       </c>
       <c r="N1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -878,7 +880,7 @@
         <v>1E-4</v>
       </c>
       <c r="M2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -916,61 +918,61 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -978,7 +980,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -993,16 +995,16 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -1020,16 +1022,16 @@
         <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q2" t="s">
         <v>13</v>
       </c>
       <c r="R2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="S2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="T2" t="s">
         <v>13</v>
@@ -1049,7 +1051,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1058,49 +1060,49 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" t="s">
         <v>110</v>
-      </c>
-      <c r="J3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" t="s">
-        <v>115</v>
       </c>
       <c r="T3" t="s">
         <v>13</v>
@@ -1109,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1129,22 +1131,22 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -1162,16 +1164,16 @@
         <v>10</v>
       </c>
       <c r="P4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q4" t="s">
         <v>13</v>
       </c>
       <c r="R4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="S4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="T4" t="s">
         <v>13</v>
@@ -1225,7 +1227,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -1244,7 +1246,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" activeCellId="1" sqref="A5:F10 G26"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1582,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1619,56 +1621,56 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>90</v>
-      </c>
-      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1679,10 +1681,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1690,50 +1692,53 @@
     <col min="1" max="1025" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>43</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1744,37 +1749,40 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
+      <c r="E2">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -1786,36 +1794,39 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s">
         <v>10</v>
       </c>
       <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -1827,36 +1838,39 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1871,33 +1885,36 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s">
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -1909,36 +1926,39 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s">
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1950,36 +1970,39 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s">
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1994,33 +2017,36 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s">
         <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -2032,36 +2058,39 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L9" t="s">
         <v>10</v>
       </c>
       <c r="M9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -2073,31 +2102,34 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s">
         <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2124,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -2136,43 +2168,43 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2205,31 +2237,31 @@
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2259,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
@@ -2292,7 +2324,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2319,7 +2351,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/case9_DC.xlsx
+++ b/data/case9_DC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samho\Desktop\PhD\DC OPF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9F9F26-0A40-4762-B08F-D3C474315FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D7320A-009D-47E0-AE32-E6CEE7D489B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ac_links" sheetId="12" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="125">
   <si>
     <t>name</t>
   </si>
@@ -125,15 +125,30 @@
     <t>D1</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>100000</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>D3</t>
   </si>
   <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>from_busname</t>
   </si>
   <si>
@@ -396,9 +411,6 @@
   </si>
   <si>
     <t>MTDC</t>
-  </si>
-  <si>
-    <t>poles</t>
   </si>
 </sst>
 </file>
@@ -430,7 +442,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -453,27 +465,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -792,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2377B432-B755-4411-A970-729F4FF71B71}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -809,42 +807,42 @@
         <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
       </c>
       <c r="N1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -880,7 +878,7 @@
         <v>1E-4</v>
       </c>
       <c r="M2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -918,61 +916,61 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -980,7 +978,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -995,16 +993,16 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -1022,16 +1020,16 @@
         <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q2" t="s">
         <v>13</v>
       </c>
       <c r="R2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="S2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="T2" t="s">
         <v>13</v>
@@ -1051,7 +1049,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1060,22 +1058,22 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>109</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>104</v>
-      </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -1093,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q3" t="s">
         <v>13</v>
       </c>
       <c r="R3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="S3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="T3" t="s">
         <v>13</v>
@@ -1111,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1122,7 +1120,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1131,22 +1129,22 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -1164,16 +1162,16 @@
         <v>10</v>
       </c>
       <c r="P4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q4" t="s">
         <v>13</v>
       </c>
       <c r="R4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="S4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="T4" t="s">
         <v>13</v>
@@ -1227,7 +1225,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -1246,7 +1244,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G26" activeCellId="1" sqref="A5:F10 G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1584,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1621,56 +1619,56 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1681,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1692,53 +1690,50 @@
     <col min="1" max="1025" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1749,40 +1744,37 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>9.9999999999999995E-8</v>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -1794,39 +1786,36 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
         <v>51</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>52</v>
       </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
       <c r="L3" t="s">
         <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -1838,39 +1827,36 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s">
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1885,36 +1871,33 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s">
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -1926,39 +1909,36 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
         <v>62</v>
       </c>
-      <c r="F6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" t="s">
-        <v>57</v>
-      </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s">
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1970,39 +1950,36 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L7" t="s">
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -2017,36 +1994,33 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s">
         <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -2058,39 +2032,36 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
         <v>10</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -2102,34 +2073,31 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L10" t="s">
         <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2156,10 +2124,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -2168,43 +2136,43 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2237,31 +2205,31 @@
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2291,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
@@ -2324,7 +2292,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2351,7 +2319,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/case9_DC.xlsx
+++ b/data/case9_DC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samho\Desktop\PhD\DC OPF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D7320A-009D-47E0-AE32-E6CEE7D489B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F6DAB9-CD16-4205-BF0C-8AA05FA04E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ac_links" sheetId="12" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="126">
   <si>
     <t>name</t>
   </si>
@@ -411,6 +411,9 @@
   </si>
   <si>
     <t>MTDC</t>
+  </si>
+  <si>
+    <t>poles</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -465,13 +468,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -790,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2377B432-B755-4411-A970-729F4FF71B71}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1244,7 +1261,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" activeCellId="1" sqref="A5:F10 G26"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1679,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1690,7 +1707,7 @@
     <col min="1" max="1025" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1730,8 +1747,11 @@
       <c r="M1" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1744,8 +1764,8 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
+      <c r="E2">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="F2" t="s">
         <v>49</v>
@@ -1771,8 +1791,11 @@
       <c r="M2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1812,8 +1835,11 @@
       <c r="M3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1853,8 +1879,11 @@
       <c r="M4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1867,8 +1896,8 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
+      <c r="E5">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="F5" t="s">
         <v>64</v>
@@ -1894,8 +1923,11 @@
       <c r="M5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1935,8 +1967,11 @@
       <c r="M6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -1976,8 +2011,11 @@
       <c r="M7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -1990,8 +2028,8 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
+      <c r="E8">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -2017,8 +2055,11 @@
       <c r="M8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -2058,8 +2099,11 @@
       <c r="M9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -2098,6 +2142,9 @@
       </c>
       <c r="M10" t="s">
         <v>53</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/case9_DC.xlsx
+++ b/data/case9_DC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samho\Desktop\PhD\DC OPF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F6DAB9-CD16-4205-BF0C-8AA05FA04E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C151B88-EFDC-4217-BA8C-85DE1FF4B067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ac_links" sheetId="12" r:id="rId1"/>
@@ -26,17 +26,25 @@
     <sheet name="timeseries" sheetId="10" r:id="rId11"/>
     <sheet name="baseMVA" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="77">
   <si>
     <t>name</t>
   </si>
@@ -89,24 +97,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>busname</t>
   </si>
   <si>
@@ -125,30 +115,12 @@
     <t>D1</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>100000</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>from_busname</t>
   </si>
   <si>
@@ -200,96 +172,9 @@
     <t>0.0001</t>
   </si>
   <si>
-    <t>L2-45</t>
-  </si>
-  <si>
-    <t>0.017</t>
-  </si>
-  <si>
-    <t>0.092</t>
-  </si>
-  <si>
-    <t>0.158</t>
-  </si>
-  <si>
-    <t>L3-56</t>
-  </si>
-  <si>
-    <t>0.039</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.358</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>L4-36</t>
-  </si>
-  <si>
-    <t>0.0586</t>
-  </si>
-  <si>
     <t>300</t>
   </si>
   <si>
-    <t>L5-67</t>
-  </si>
-  <si>
-    <t>0.0119</t>
-  </si>
-  <si>
-    <t>0.1008</t>
-  </si>
-  <si>
-    <t>0.209</t>
-  </si>
-  <si>
-    <t>L6-78</t>
-  </si>
-  <si>
-    <t>0.0085</t>
-  </si>
-  <si>
-    <t>0.072</t>
-  </si>
-  <si>
-    <t>0.149</t>
-  </si>
-  <si>
-    <t>L7-82</t>
-  </si>
-  <si>
-    <t>0.0625</t>
-  </si>
-  <si>
-    <t>L8-89</t>
-  </si>
-  <si>
-    <t>0.032</t>
-  </si>
-  <si>
-    <t>0.161</t>
-  </si>
-  <si>
-    <t>0.306</t>
-  </si>
-  <si>
-    <t>L9-94</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.085</t>
-  </si>
-  <si>
-    <t>0.176</t>
-  </si>
-  <si>
     <t>PhaseShift</t>
   </si>
   <si>
@@ -375,30 +260,6 @@
   </si>
   <si>
     <t>1500</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>3000</t>
   </si>
   <si>
     <t>baseMVA</t>
@@ -483,14 +344,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -808,7 +672,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -818,51 +682,51 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="L1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
       </c>
       <c r="N1" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -895,7 +759,7 @@
         <v>1E-4</v>
       </c>
       <c r="M2" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -908,10 +772,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -921,73 +785,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -995,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1010,16 +874,16 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -1037,16 +901,16 @@
         <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="Q2" t="s">
         <v>13</v>
       </c>
       <c r="R2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="S2" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s">
         <v>13</v>
@@ -1054,152 +918,10 @@
       <c r="U2">
         <v>0</v>
       </c>
-      <c r="V2" t="s">
-        <v>18</v>
+      <c r="V2">
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" t="s">
-        <v>115</v>
-      </c>
-      <c r="T3" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3" t="s">
-        <v>116</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" t="s">
-        <v>120</v>
-      </c>
-      <c r="T4" t="s">
-        <v>13</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W4">
         <v>0</v>
       </c>
     </row>
@@ -1232,7 +954,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCellId="1" sqref="A5:F10 A1"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1242,7 +964,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -1258,10 +980,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1334,258 +1056,34 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1597,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1613,79 +1111,59 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>90</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
+      <c r="F3" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1696,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1712,438 +1190,86 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="I2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10">
+      <c r="N2" s="4">
         <v>2</v>
       </c>
     </row>
@@ -2171,55 +1297,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2243,40 +1369,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2289,7 +1415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCellId="1" sqref="A5:F10 A1"/>
     </sheetView>
   </sheetViews>
@@ -2300,19 +1426,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2339,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2366,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/case9_DC.xlsx
+++ b/data/case9_DC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samho\Desktop\PhD\DC OPF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C151B88-EFDC-4217-BA8C-85DE1FF4B067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1A127C-7ABA-4DA8-BC66-F706159C0A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ac_links" sheetId="12" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="126">
   <si>
     <t>name</t>
   </si>
@@ -97,6 +97,24 @@
     <t>2</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>busname</t>
   </si>
   <si>
@@ -115,12 +133,30 @@
     <t>D1</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>100000</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>from_busname</t>
   </si>
   <si>
@@ -172,9 +208,96 @@
     <t>0.0001</t>
   </si>
   <si>
+    <t>L2-45</t>
+  </si>
+  <si>
+    <t>0.017</t>
+  </si>
+  <si>
+    <t>0.092</t>
+  </si>
+  <si>
+    <t>0.158</t>
+  </si>
+  <si>
+    <t>L3-56</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.358</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>L4-36</t>
+  </si>
+  <si>
+    <t>0.0586</t>
+  </si>
+  <si>
     <t>300</t>
   </si>
   <si>
+    <t>L5-67</t>
+  </si>
+  <si>
+    <t>0.0119</t>
+  </si>
+  <si>
+    <t>0.1008</t>
+  </si>
+  <si>
+    <t>0.209</t>
+  </si>
+  <si>
+    <t>L6-78</t>
+  </si>
+  <si>
+    <t>0.0085</t>
+  </si>
+  <si>
+    <t>0.072</t>
+  </si>
+  <si>
+    <t>0.149</t>
+  </si>
+  <si>
+    <t>L7-82</t>
+  </si>
+  <si>
+    <t>0.0625</t>
+  </si>
+  <si>
+    <t>L8-89</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>0.161</t>
+  </si>
+  <si>
+    <t>0.306</t>
+  </si>
+  <si>
+    <t>L9-94</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.085</t>
+  </si>
+  <si>
+    <t>0.176</t>
+  </si>
+  <si>
     <t>PhaseShift</t>
   </si>
   <si>
@@ -260,6 +383,30 @@
   </si>
   <si>
     <t>1500</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>3000</t>
   </si>
   <si>
     <t>baseMVA</t>
@@ -344,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -352,9 +499,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,51 +826,51 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
       </c>
       <c r="N1" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -759,7 +903,7 @@
         <v>1E-4</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -772,10 +916,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="A3" sqref="A3:W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -785,73 +929,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -859,7 +1003,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -874,16 +1018,16 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -901,16 +1045,16 @@
         <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="Q2" t="s">
         <v>13</v>
       </c>
       <c r="R2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="S2" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="T2" t="s">
         <v>13</v>
@@ -918,10 +1062,152 @@
       <c r="U2">
         <v>0</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2">
         <v>0</v>
       </c>
-      <c r="W2">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" t="s">
+        <v>115</v>
+      </c>
+      <c r="T3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>116</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4">
         <v>0</v>
       </c>
     </row>
@@ -964,7 +1250,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -980,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J3"/>
+      <selection activeCell="A3" sqref="A3:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1056,34 +1342,258 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1095,10 +1605,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1111,59 +1621,79 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>23</v>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1174,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1190,86 +1720,438 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1.2E-2</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="4">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10">
         <v>2</v>
       </c>
     </row>
@@ -1297,55 +2179,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1369,40 +2251,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1426,19 +2308,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1465,7 +2347,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1492,7 +2374,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/case9_DC.xlsx
+++ b/data/case9_DC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samho\Desktop\PhD\DC OPF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1A127C-7ABA-4DA8-BC66-F706159C0A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A89132-8DC0-48A3-A61C-1BFB960D51EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ac_links" sheetId="12" r:id="rId1"/>
@@ -26,25 +26,17 @@
     <sheet name="timeseries" sheetId="10" r:id="rId11"/>
     <sheet name="baseMVA" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="124">
   <si>
     <t>name</t>
   </si>
@@ -412,16 +404,10 @@
     <t>baseMVA</t>
   </si>
   <si>
-    <t>marginal_cost</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
     <t>MTDC</t>
-  </si>
-  <si>
-    <t>poles</t>
   </si>
 </sst>
 </file>
@@ -453,7 +439,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -476,27 +462,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -813,15 +785,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2377B432-B755-4411-A970-729F4FF71B71}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -862,12 +834,18 @@
         <v>2</v>
       </c>
       <c r="N1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>123</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -903,9 +881,15 @@
         <v>1E-4</v>
       </c>
       <c r="M2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>0</v>
       </c>
     </row>
@@ -918,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:W4"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1240,7 +1224,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCellId="1" sqref="A5:F10 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1269,7 +1253,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J11"/>
+      <selection activeCell="G26" activeCellId="1" sqref="A5:F10 G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1608,7 +1592,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F4"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1704,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:N10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1715,7 +1699,7 @@
     <col min="1" max="1025" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1755,11 +1739,8 @@
       <c r="M1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1772,8 +1753,8 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>9.9999999999999995E-7</v>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>49</v>
@@ -1799,11 +1780,8 @@
       <c r="M2" t="s">
         <v>53</v>
       </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1843,11 +1821,8 @@
       <c r="M3" t="s">
         <v>53</v>
       </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1887,11 +1862,8 @@
       <c r="M4" t="s">
         <v>53</v>
       </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1904,8 +1876,8 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
-        <v>9.9999999999999995E-7</v>
+      <c r="E5" t="s">
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>64</v>
@@ -1931,11 +1903,8 @@
       <c r="M5" t="s">
         <v>53</v>
       </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1975,11 +1944,8 @@
       <c r="M6" t="s">
         <v>53</v>
       </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -2019,11 +1985,8 @@
       <c r="M7" t="s">
         <v>53</v>
       </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -2036,8 +1999,8 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8">
-        <v>9.9999999999999995E-7</v>
+      <c r="E8" t="s">
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -2063,11 +2026,8 @@
       <c r="M8" t="s">
         <v>53</v>
       </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -2107,11 +2067,8 @@
       <c r="M9" t="s">
         <v>53</v>
       </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -2150,9 +2107,6 @@
       </c>
       <c r="M10" t="s">
         <v>53</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2297,7 +2251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCellId="1" sqref="A5:F10 A1"/>
     </sheetView>
   </sheetViews>

--- a/data/case9_DC.xlsx
+++ b/data/case9_DC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samho\Desktop\PhD\DC OPF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A89132-8DC0-48A3-A61C-1BFB960D51EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77CD820-44BD-49B0-8F50-F91FC9778541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ac_links" sheetId="12" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="125">
   <si>
     <t>name</t>
   </si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t>MTDC</t>
+  </si>
+  <si>
+    <t>poles</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -462,13 +465,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -787,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2377B432-B755-4411-A970-729F4FF71B71}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1688,10 +1705,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1699,7 +1716,7 @@
     <col min="1" max="1025" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1739,8 +1756,11 @@
       <c r="M1" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1753,8 +1773,8 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
+      <c r="E2">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="F2" t="s">
         <v>49</v>
@@ -1780,8 +1800,11 @@
       <c r="M2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1821,8 +1844,11 @@
       <c r="M3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1862,8 +1888,11 @@
       <c r="M4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1876,8 +1905,8 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
+      <c r="E5">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="F5" t="s">
         <v>64</v>
@@ -1903,8 +1932,11 @@
       <c r="M5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1944,8 +1976,11 @@
       <c r="M6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -1985,8 +2020,11 @@
       <c r="M7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -1999,8 +2037,8 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
+      <c r="E8">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="F8" t="s">
         <v>75</v>
@@ -2026,8 +2064,11 @@
       <c r="M8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -2067,8 +2108,11 @@
       <c r="M9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -2107,6 +2151,9 @@
       </c>
       <c r="M10" t="s">
         <v>53</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
